--- a/biology/Zoologie/Brachymeles_talinis/Brachymeles_talinis.xlsx
+++ b/biology/Zoologie/Brachymeles_talinis/Brachymeles_talinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachymeles talinis est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachymeles talinis est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre sur les îles de Negros, de Panay, de Sibuyan, de Tablas, d'Inampulugan, de Boracay, de Calagnan, de Caluya, de Sicogon, de Masbate, de Camiguin Norte et de Luçon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre sur les îles de Negros, de Panay, de Sibuyan, de Tablas, d'Inampulugan, de Boracay, de Calagnan, de Caluya, de Sicogon, de Masbate, de Camiguin Norte et de Luçon.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brown, 1956 : A revision of the genus Brachymeles (Scincidae), with descriptions of new species and subspecies. Breviora, vol. 54, p. 1-19 (texte intégral).</t>
         </is>
